--- a/biology/Zoologie/Eusomatus/Eusomatus.xlsx
+++ b/biology/Zoologie/Eusomatus/Eusomatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusomatus est un genre de coléoptères appartenant à la sous-famille des Entiminae qui dépend de la famille des Curculionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est proche d'Eusomus, dont il ne diffère que par sa carapace visible, la partie des pattes correspondant au fémur qui ne possèdent pas d'éperons, et par la forme des appareils génitaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves, qui vivent dans la terre, sont polyphages.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eusomatulus Reitter, 1904</t>
         </is>
@@ -603,7 +621,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eusomatus claviger Schilsky in Kuster, 1912
 Eusomatus elegans Stierlin, 1885
